--- a/SchedulingData/dynamic12/pso/scheduling2_2.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling2_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>209.24</v>
+        <v>245.6</v>
       </c>
       <c r="D2" t="n">
-        <v>269.34</v>
+        <v>324.84</v>
       </c>
       <c r="E2" t="n">
-        <v>15.696</v>
+        <v>13.576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>247.72</v>
+        <v>208.38</v>
       </c>
       <c r="D3" t="n">
-        <v>295.62</v>
+        <v>287.54</v>
       </c>
       <c r="E3" t="n">
-        <v>12.548</v>
+        <v>16.156</v>
       </c>
     </row>
     <row r="4">
@@ -504,17 +504,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>237.26</v>
+        <v>243.26</v>
       </c>
       <c r="D4" t="n">
-        <v>291.82</v>
+        <v>305.86</v>
       </c>
       <c r="E4" t="n">
-        <v>13.488</v>
+        <v>10.184</v>
       </c>
     </row>
     <row r="5">
@@ -523,55 +523,55 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>250.86</v>
+        <v>232.84</v>
       </c>
       <c r="D5" t="n">
-        <v>327</v>
+        <v>303.24</v>
       </c>
       <c r="E5" t="n">
-        <v>14.36</v>
+        <v>11.296</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>295.62</v>
+        <v>303.24</v>
       </c>
       <c r="D6" t="n">
-        <v>355.22</v>
+        <v>352.06</v>
       </c>
       <c r="E6" t="n">
-        <v>9.188000000000001</v>
+        <v>8.523999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>291.82</v>
+        <v>287.54</v>
       </c>
       <c r="D7" t="n">
-        <v>329.62</v>
+        <v>333.56</v>
       </c>
       <c r="E7" t="n">
-        <v>11.328</v>
+        <v>12.684</v>
       </c>
     </row>
     <row r="8">
@@ -580,17 +580,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>355.22</v>
+        <v>219.74</v>
       </c>
       <c r="D8" t="n">
-        <v>399.56</v>
+        <v>272.12</v>
       </c>
       <c r="E8" t="n">
-        <v>5.884</v>
+        <v>13.468</v>
       </c>
     </row>
     <row r="9">
@@ -599,17 +599,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>221.86</v>
+        <v>333.56</v>
       </c>
       <c r="D9" t="n">
-        <v>273.4</v>
+        <v>391.26</v>
       </c>
       <c r="E9" t="n">
-        <v>14.32</v>
+        <v>10.524</v>
       </c>
     </row>
     <row r="10">
@@ -618,74 +618,74 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>269.34</v>
+        <v>216.58</v>
       </c>
       <c r="D10" t="n">
-        <v>315.98</v>
+        <v>277.98</v>
       </c>
       <c r="E10" t="n">
-        <v>12.672</v>
+        <v>12.832</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>315.98</v>
+        <v>391.26</v>
       </c>
       <c r="D11" t="n">
-        <v>373.18</v>
+        <v>437.8</v>
       </c>
       <c r="E11" t="n">
-        <v>9.592000000000001</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>273.4</v>
+        <v>352.06</v>
       </c>
       <c r="D12" t="n">
-        <v>351.92</v>
+        <v>409.06</v>
       </c>
       <c r="E12" t="n">
-        <v>10.568</v>
+        <v>5.444</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>373.18</v>
+        <v>305.86</v>
       </c>
       <c r="D13" t="n">
-        <v>407.8</v>
+        <v>355.66</v>
       </c>
       <c r="E13" t="n">
-        <v>7.26</v>
+        <v>7.344</v>
       </c>
     </row>
     <row r="14">
@@ -694,36 +694,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>407.8</v>
+        <v>277.98</v>
       </c>
       <c r="D14" t="n">
-        <v>485.08</v>
+        <v>334.78</v>
       </c>
       <c r="E14" t="n">
-        <v>3.152</v>
+        <v>9.752000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>216.06</v>
+        <v>334.78</v>
       </c>
       <c r="D15" t="n">
-        <v>260.22</v>
+        <v>390.36</v>
       </c>
       <c r="E15" t="n">
-        <v>11.708</v>
+        <v>6.824</v>
       </c>
     </row>
     <row r="16">
@@ -732,169 +732,169 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>260.22</v>
+        <v>324.84</v>
       </c>
       <c r="D16" t="n">
-        <v>327.6</v>
+        <v>398.38</v>
       </c>
       <c r="E16" t="n">
-        <v>7.6</v>
+        <v>10.352</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>327</v>
+        <v>398.38</v>
       </c>
       <c r="D17" t="n">
-        <v>386.74</v>
+        <v>433.44</v>
       </c>
       <c r="E17" t="n">
-        <v>11.016</v>
+        <v>7.976</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>399.56</v>
+        <v>355.66</v>
       </c>
       <c r="D18" t="n">
-        <v>480.92</v>
+        <v>415.08</v>
       </c>
       <c r="E18" t="n">
-        <v>2.348</v>
+        <v>5.012</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>351.92</v>
+        <v>433.44</v>
       </c>
       <c r="D19" t="n">
-        <v>402.12</v>
+        <v>487.3</v>
       </c>
       <c r="E19" t="n">
-        <v>8.148</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>327.6</v>
+        <v>415.08</v>
       </c>
       <c r="D20" t="n">
-        <v>390.1</v>
+        <v>472.58</v>
       </c>
       <c r="E20" t="n">
-        <v>5.44</v>
+        <v>1.372</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>386.74</v>
+        <v>472.58</v>
       </c>
       <c r="D21" t="n">
-        <v>443.64</v>
+        <v>546.74</v>
       </c>
       <c r="E21" t="n">
-        <v>7.936</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>402.12</v>
+        <v>409.06</v>
       </c>
       <c r="D22" t="n">
-        <v>463.04</v>
+        <v>452.06</v>
       </c>
       <c r="E22" t="n">
-        <v>4.676</v>
+        <v>3.284</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>329.62</v>
+        <v>272.12</v>
       </c>
       <c r="D23" t="n">
-        <v>401.14</v>
+        <v>348.92</v>
       </c>
       <c r="E23" t="n">
-        <v>8.256</v>
+        <v>10.388</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>390.1</v>
+        <v>348.92</v>
       </c>
       <c r="D24" t="n">
-        <v>450.16</v>
+        <v>429.12</v>
       </c>
       <c r="E24" t="n">
-        <v>3.064</v>
+        <v>7.968</v>
       </c>
     </row>
     <row r="25">
@@ -903,55 +903,74 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>463.04</v>
+        <v>437.8</v>
       </c>
       <c r="D25" t="n">
-        <v>502.56</v>
+        <v>478.9</v>
       </c>
       <c r="E25" t="n">
-        <v>2.344</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>401.14</v>
+        <v>487.3</v>
       </c>
       <c r="D26" t="n">
-        <v>474.58</v>
+        <v>531.92</v>
       </c>
       <c r="E26" t="n">
-        <v>5.032</v>
+        <v>2.368</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>443.64</v>
+        <v>390.36</v>
       </c>
       <c r="D27" t="n">
-        <v>515.74</v>
+        <v>442.32</v>
       </c>
       <c r="E27" t="n">
-        <v>4.856</v>
+        <v>4.228</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>pond19</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>429.12</v>
+      </c>
+      <c r="D28" t="n">
+        <v>477.66</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.744</v>
       </c>
     </row>
   </sheetData>
